--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3527,28 +3527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2254.639486021625</v>
+        <v>2375.336042957802</v>
       </c>
       <c r="AB2" t="n">
-        <v>3084.897212449011</v>
+        <v>3250.039566405387</v>
       </c>
       <c r="AC2" t="n">
-        <v>2790.478952173191</v>
+        <v>2939.860351646714</v>
       </c>
       <c r="AD2" t="n">
-        <v>2254639.486021625</v>
+        <v>2375336.042957802</v>
       </c>
       <c r="AE2" t="n">
-        <v>3084897.212449011</v>
+        <v>3250039.566405387</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.119371212248886e-06</v>
+        <v>1.613757643000078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.15208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2790478.952173191</v>
+        <v>2939860.351646714</v>
       </c>
     </row>
     <row r="3">
@@ -3633,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>789.0178068710755</v>
+        <v>857.9994083803718</v>
       </c>
       <c r="AB3" t="n">
-        <v>1079.568972369949</v>
+        <v>1173.952642808445</v>
       </c>
       <c r="AC3" t="n">
-        <v>976.5364248315293</v>
+        <v>1061.912250231688</v>
       </c>
       <c r="AD3" t="n">
-        <v>789017.8068710755</v>
+        <v>857999.4083803719</v>
       </c>
       <c r="AE3" t="n">
-        <v>1079568.972369949</v>
+        <v>1173952.642808445</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.085563775617109e-06</v>
+        <v>3.006683078890801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>976536.4248315293</v>
+        <v>1061912.250231688</v>
       </c>
     </row>
     <row r="4">
@@ -3739,28 +3739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>611.4519181340413</v>
+        <v>663.1668735609217</v>
       </c>
       <c r="AB4" t="n">
-        <v>836.6154897457992</v>
+        <v>907.3741732636701</v>
       </c>
       <c r="AC4" t="n">
-        <v>756.770081601674</v>
+        <v>820.7756556750351</v>
       </c>
       <c r="AD4" t="n">
-        <v>611451.9181340414</v>
+        <v>663166.8735609216</v>
       </c>
       <c r="AE4" t="n">
-        <v>836615.4897457992</v>
+        <v>907374.1732636701</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.440062934455216e-06</v>
+        <v>3.517751901058167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.45625</v>
       </c>
       <c r="AH4" t="n">
-        <v>756770.081601674</v>
+        <v>820775.6556750351</v>
       </c>
     </row>
     <row r="5">
@@ -3845,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>539.5687804812096</v>
+        <v>591.3689872541105</v>
       </c>
       <c r="AB5" t="n">
-        <v>738.261809548978</v>
+        <v>809.137137719498</v>
       </c>
       <c r="AC5" t="n">
-        <v>667.8031386025802</v>
+        <v>731.9142249266537</v>
       </c>
       <c r="AD5" t="n">
-        <v>539568.7804812096</v>
+        <v>591368.9872541105</v>
       </c>
       <c r="AE5" t="n">
-        <v>738261.809548978</v>
+        <v>809137.137719498</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.622564353264463e-06</v>
+        <v>3.780857702099884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.58958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>667803.1386025803</v>
+        <v>731914.2249266537</v>
       </c>
     </row>
     <row r="6">
@@ -3951,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>501.9112569545178</v>
+        <v>545.0781854404863</v>
       </c>
       <c r="AB6" t="n">
-        <v>686.7371245270713</v>
+        <v>745.8000204720531</v>
       </c>
       <c r="AC6" t="n">
-        <v>621.1958972038148</v>
+        <v>674.6219132551024</v>
       </c>
       <c r="AD6" t="n">
-        <v>501911.2569545178</v>
+        <v>545078.1854404863</v>
       </c>
       <c r="AE6" t="n">
-        <v>686737.1245270713</v>
+        <v>745800.0204720531</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.738396588703746e-06</v>
+        <v>3.947848913952101e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.09791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>621195.8972038147</v>
+        <v>674621.9132551025</v>
       </c>
     </row>
     <row r="7">
@@ -4057,28 +4057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>467.5285515336395</v>
+        <v>519.2434174519689</v>
       </c>
       <c r="AB7" t="n">
-        <v>639.6931901123168</v>
+        <v>710.4517511606393</v>
       </c>
       <c r="AC7" t="n">
-        <v>578.6417698630278</v>
+        <v>642.6472331551623</v>
       </c>
       <c r="AD7" t="n">
-        <v>467528.5515336395</v>
+        <v>519243.4174519689</v>
       </c>
       <c r="AE7" t="n">
-        <v>639693.1901123167</v>
+        <v>710451.7511606393</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.818487139404207e-06</v>
+        <v>4.063312610812136e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.78333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>578641.7698630277</v>
+        <v>642647.2331551623</v>
       </c>
     </row>
     <row r="8">
@@ -4163,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>447.0329940852907</v>
+        <v>498.74786000362</v>
       </c>
       <c r="AB8" t="n">
-        <v>611.6502642113065</v>
+        <v>682.4088252596291</v>
       </c>
       <c r="AC8" t="n">
-        <v>553.2752214515162</v>
+        <v>617.2806847436509</v>
       </c>
       <c r="AD8" t="n">
-        <v>447032.9940852907</v>
+        <v>498747.86000362</v>
       </c>
       <c r="AE8" t="n">
-        <v>611650.2642113066</v>
+        <v>682408.8252596291</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875382066131311e-06</v>
+        <v>4.145336002024182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.57083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>553275.2214515163</v>
+        <v>617280.684743651</v>
       </c>
     </row>
     <row r="9">
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>428.3164632141736</v>
+        <v>471.3980508455705</v>
       </c>
       <c r="AB9" t="n">
-        <v>586.0414809583783</v>
+        <v>644.9876097811623</v>
       </c>
       <c r="AC9" t="n">
-        <v>530.1105045300943</v>
+        <v>583.4308975494433</v>
       </c>
       <c r="AD9" t="n">
-        <v>428316.4632141736</v>
+        <v>471398.0508455705</v>
       </c>
       <c r="AE9" t="n">
-        <v>586041.4809583783</v>
+        <v>644987.6097811623</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.926149846903187e-06</v>
+        <v>4.218526104951853e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.38541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>530110.5045300943</v>
+        <v>583430.8975494433</v>
       </c>
     </row>
     <row r="10">
@@ -4375,28 +4375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>414.0611775646566</v>
+        <v>457.1427651960535</v>
       </c>
       <c r="AB10" t="n">
-        <v>566.5367702338918</v>
+        <v>625.4828990566758</v>
       </c>
       <c r="AC10" t="n">
-        <v>512.4672960221194</v>
+        <v>565.7876890414683</v>
       </c>
       <c r="AD10" t="n">
-        <v>414061.1775646566</v>
+        <v>457142.7651960535</v>
       </c>
       <c r="AE10" t="n">
-        <v>566536.7702338918</v>
+        <v>625482.8990566758</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.956056154541794e-06</v>
+        <v>4.261640964435109e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.28125</v>
       </c>
       <c r="AH10" t="n">
-        <v>512467.2960221193</v>
+        <v>565787.6890414683</v>
       </c>
     </row>
     <row r="11">
@@ -4481,28 +4481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>410.22864702995</v>
+        <v>453.310234661347</v>
       </c>
       <c r="AB11" t="n">
-        <v>561.2929328769922</v>
+        <v>620.2390616997762</v>
       </c>
       <c r="AC11" t="n">
-        <v>507.7239231427902</v>
+        <v>561.0443161621391</v>
       </c>
       <c r="AD11" t="n">
-        <v>410228.6470299501</v>
+        <v>453310.2346613469</v>
       </c>
       <c r="AE11" t="n">
-        <v>561292.9328769922</v>
+        <v>620239.0616997762</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.96218330049702e-06</v>
+        <v>4.270474252719483e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>507723.9231427902</v>
+        <v>561044.3161621392</v>
       </c>
     </row>
     <row r="12">
@@ -4587,28 +4587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>410.3926701693919</v>
+        <v>453.4742578007887</v>
       </c>
       <c r="AB12" t="n">
-        <v>561.5173565725667</v>
+        <v>620.4634853953506</v>
       </c>
       <c r="AC12" t="n">
-        <v>507.9269281558397</v>
+        <v>561.2473211751887</v>
       </c>
       <c r="AD12" t="n">
-        <v>410392.6701693919</v>
+        <v>453474.2578007887</v>
       </c>
       <c r="AE12" t="n">
-        <v>561517.3565725667</v>
+        <v>620463.4853953506</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.968018677597236e-06</v>
+        <v>4.27888690822841e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.23958333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>507926.9281558397</v>
+        <v>561247.3211751888</v>
       </c>
     </row>
   </sheetData>
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1381.529072810759</v>
+        <v>1473.950139715201</v>
       </c>
       <c r="AB2" t="n">
-        <v>1890.269026180826</v>
+        <v>2016.723607249191</v>
       </c>
       <c r="AC2" t="n">
-        <v>1709.864403331368</v>
+        <v>1824.250336662687</v>
       </c>
       <c r="AD2" t="n">
-        <v>1381529.072810759</v>
+        <v>1473950.139715201</v>
       </c>
       <c r="AE2" t="n">
-        <v>1890269.026180826</v>
+        <v>2016723.607249191</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.470972396107541e-06</v>
+        <v>2.153448251460207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1709864.403331368</v>
+        <v>1824250.336662687</v>
       </c>
     </row>
     <row r="3">
@@ -4990,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.1527206565612</v>
+        <v>684.9040933409901</v>
       </c>
       <c r="AB3" t="n">
-        <v>856.7297763107456</v>
+        <v>937.115996345215</v>
       </c>
       <c r="AC3" t="n">
-        <v>774.9646888874404</v>
+        <v>847.6789609045885</v>
       </c>
       <c r="AD3" t="n">
-        <v>626152.7206565612</v>
+        <v>684904.0933409901</v>
       </c>
       <c r="AE3" t="n">
-        <v>856729.7763107456</v>
+        <v>937115.996345215</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.358204028067758e-06</v>
+        <v>3.452321983925022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>774964.6888874404</v>
+        <v>847678.9609045885</v>
       </c>
     </row>
     <row r="4">
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>501.3949142021431</v>
+        <v>551.8994555321613</v>
       </c>
       <c r="AB4" t="n">
-        <v>686.0306415938377</v>
+        <v>755.1331831446804</v>
       </c>
       <c r="AC4" t="n">
-        <v>620.5568400101738</v>
+        <v>683.0643319814303</v>
       </c>
       <c r="AD4" t="n">
-        <v>501394.9142021431</v>
+        <v>551899.4555321613</v>
       </c>
       <c r="AE4" t="n">
-        <v>686030.6415938376</v>
+        <v>755133.1831446805</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676031858805676e-06</v>
+        <v>3.917609971775151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>620556.8400101739</v>
+        <v>683064.3319814303</v>
       </c>
     </row>
     <row r="5">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>452.6594287296206</v>
+        <v>494.7466360131869</v>
       </c>
       <c r="AB5" t="n">
-        <v>619.3486003124569</v>
+        <v>676.9341740743743</v>
       </c>
       <c r="AC5" t="n">
-        <v>560.2388391598553</v>
+        <v>612.3285265837956</v>
       </c>
       <c r="AD5" t="n">
-        <v>452659.4287296206</v>
+        <v>494746.6360131869</v>
       </c>
       <c r="AE5" t="n">
-        <v>619348.600312457</v>
+        <v>676934.1740743743</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.844000698127282e-06</v>
+        <v>4.163510033730133e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.05625</v>
       </c>
       <c r="AH5" t="n">
-        <v>560238.8391598553</v>
+        <v>612328.5265837956</v>
       </c>
     </row>
     <row r="6">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>413.0698140277491</v>
+        <v>463.4890145031957</v>
       </c>
       <c r="AB6" t="n">
-        <v>565.1803429068225</v>
+        <v>634.1661173354674</v>
       </c>
       <c r="AC6" t="n">
-        <v>511.2403242153878</v>
+        <v>573.6421931547054</v>
       </c>
       <c r="AD6" t="n">
-        <v>413069.8140277491</v>
+        <v>463489.0145031957</v>
       </c>
       <c r="AE6" t="n">
-        <v>565180.3429068225</v>
+        <v>634166.1173354675</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.950094223772465e-06</v>
+        <v>4.318826964147341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.65833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>511240.3242153878</v>
+        <v>573642.1931547055</v>
       </c>
     </row>
     <row r="7">
@@ -5414,28 +5414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>388.7834888262104</v>
+        <v>430.785355255205</v>
       </c>
       <c r="AB7" t="n">
-        <v>531.9507213290276</v>
+        <v>589.419527968747</v>
       </c>
       <c r="AC7" t="n">
-        <v>481.1820910829109</v>
+        <v>533.1661554749123</v>
       </c>
       <c r="AD7" t="n">
-        <v>388783.4888262104</v>
+        <v>430785.3552552051</v>
       </c>
       <c r="AE7" t="n">
-        <v>531950.7213290276</v>
+        <v>589419.5279687471</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.019515307409427e-06</v>
+        <v>4.42045681904338e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.4125</v>
       </c>
       <c r="AH7" t="n">
-        <v>481182.0910829108</v>
+        <v>533166.1554749124</v>
       </c>
     </row>
     <row r="8">
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>378.0854493645901</v>
+        <v>420.0873157935847</v>
       </c>
       <c r="AB8" t="n">
-        <v>517.3131917734473</v>
+        <v>574.7819984131669</v>
       </c>
       <c r="AC8" t="n">
-        <v>467.9415468042134</v>
+        <v>519.9256111962148</v>
       </c>
       <c r="AD8" t="n">
-        <v>378085.4493645902</v>
+        <v>420087.3157935847</v>
       </c>
       <c r="AE8" t="n">
-        <v>517313.1917734473</v>
+        <v>574781.9984131668</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.050603879646849e-06</v>
+        <v>4.465969319279431e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.30625</v>
       </c>
       <c r="AH8" t="n">
-        <v>467941.5468042134</v>
+        <v>519925.6111962148</v>
       </c>
     </row>
     <row r="9">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>379.1939299376087</v>
+        <v>421.1957963666033</v>
       </c>
       <c r="AB9" t="n">
-        <v>518.8298637961626</v>
+        <v>576.2986704358823</v>
       </c>
       <c r="AC9" t="n">
-        <v>469.3134697777434</v>
+        <v>521.2975341697448</v>
       </c>
       <c r="AD9" t="n">
-        <v>379193.9299376087</v>
+        <v>421195.7963666033</v>
       </c>
       <c r="AE9" t="n">
-        <v>518829.8637961627</v>
+        <v>576298.6704358823</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.049849302650795e-06</v>
+        <v>4.464864646943606e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.30833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>469313.4697777434</v>
+        <v>521297.5341697449</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.352800006532</v>
+        <v>523.7238211462111</v>
       </c>
       <c r="AB2" t="n">
-        <v>642.1892073530911</v>
+        <v>716.5820371565623</v>
       </c>
       <c r="AC2" t="n">
-        <v>580.8995707215248</v>
+        <v>648.1924532595449</v>
       </c>
       <c r="AD2" t="n">
-        <v>469352.8000065321</v>
+        <v>523723.8211462111</v>
       </c>
       <c r="AE2" t="n">
-        <v>642189.2073530911</v>
+        <v>716582.0371565622</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.5845970687489e-06</v>
+        <v>3.99869068970504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.575</v>
       </c>
       <c r="AH2" t="n">
-        <v>580899.5707215248</v>
+        <v>648192.4532595449</v>
       </c>
     </row>
     <row r="3">
@@ -6029,28 +6029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.6821771730076</v>
+        <v>356.2005687238751</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.7208170215362</v>
+        <v>487.369332588028</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.2814969409018</v>
+        <v>440.8554875129802</v>
       </c>
       <c r="AD3" t="n">
-        <v>309682.1771730076</v>
+        <v>356200.5687238751</v>
       </c>
       <c r="AE3" t="n">
-        <v>423720.8170215362</v>
+        <v>487369.332588028</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.198245213036168e-06</v>
+        <v>4.948080113296724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>383281.4969409019</v>
+        <v>440855.4875129802</v>
       </c>
     </row>
     <row r="4">
@@ -6135,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.2629398299195</v>
+        <v>350.781331380787</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.305977408845</v>
+        <v>479.9544929753368</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.5743192140531</v>
+        <v>434.1483097861315</v>
       </c>
       <c r="AD4" t="n">
-        <v>304262.9398299195</v>
+        <v>350781.331380787</v>
       </c>
       <c r="AE4" t="n">
-        <v>416305.977408845</v>
+        <v>479954.4929753368</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.232935530742858e-06</v>
+        <v>5.001750316716013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.85208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>376574.3192140531</v>
+        <v>434148.3097861315</v>
       </c>
     </row>
   </sheetData>
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>693.4792613630243</v>
+        <v>757.6509854569809</v>
       </c>
       <c r="AB2" t="n">
-        <v>948.8489195426755</v>
+        <v>1036.651503504688</v>
       </c>
       <c r="AC2" t="n">
-        <v>858.2921103793444</v>
+        <v>937.7149389597231</v>
       </c>
       <c r="AD2" t="n">
-        <v>693479.2613630244</v>
+        <v>757650.985456981</v>
       </c>
       <c r="AE2" t="n">
-        <v>948848.9195426755</v>
+        <v>1036651.503504688</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.129131354924152e-06</v>
+        <v>3.217743374712141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.76458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>858292.1103793444</v>
+        <v>937714.9389597231</v>
       </c>
     </row>
     <row r="3">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.2601218375025</v>
+        <v>459.38891490797</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.7042422141423</v>
+        <v>628.5561801856516</v>
       </c>
       <c r="AC3" t="n">
-        <v>509.0005390975878</v>
+        <v>568.5676605328717</v>
       </c>
       <c r="AD3" t="n">
-        <v>411260.1218375025</v>
+        <v>459388.91490797</v>
       </c>
       <c r="AE3" t="n">
-        <v>562704.2422141422</v>
+        <v>628556.1801856515</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.870042001208669e-06</v>
+        <v>4.337477165594491e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.69375</v>
       </c>
       <c r="AH3" t="n">
-        <v>509000.5390975878</v>
+        <v>568567.6605328717</v>
       </c>
     </row>
     <row r="4">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.4210993337148</v>
+        <v>390.4645515496107</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.5156546611252</v>
+        <v>534.2508255104369</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.8011781461179</v>
+        <v>483.262676549463</v>
       </c>
       <c r="AD4" t="n">
-        <v>342421.0993337148</v>
+        <v>390464.5515496107</v>
       </c>
       <c r="AE4" t="n">
-        <v>468515.6546611252</v>
+        <v>534250.8255104369</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.128933805639898e-06</v>
+        <v>4.728738788109807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.72708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>423801.1781461179</v>
+        <v>483262.676549463</v>
       </c>
     </row>
     <row r="5">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>329.2748982334934</v>
+        <v>369.467566646788</v>
       </c>
       <c r="AB5" t="n">
-        <v>450.528442346342</v>
+        <v>505.5218244447976</v>
       </c>
       <c r="AC5" t="n">
-        <v>407.5306401294466</v>
+        <v>457.275531024122</v>
       </c>
       <c r="AD5" t="n">
-        <v>329274.8982334934</v>
+        <v>369467.566646788</v>
       </c>
       <c r="AE5" t="n">
-        <v>450528.442346342</v>
+        <v>505521.8244447976</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.18531969957327e-06</v>
+        <v>4.813954449516379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5375</v>
       </c>
       <c r="AH5" t="n">
-        <v>407530.6401294466</v>
+        <v>457275.531024122</v>
       </c>
     </row>
     <row r="6">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.8910817609656</v>
+        <v>371.0837501742602</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.7397759496145</v>
+        <v>507.73315804807</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.5309271572489</v>
+        <v>459.2758180519245</v>
       </c>
       <c r="AD6" t="n">
-        <v>330891.0817609656</v>
+        <v>371083.7501742602</v>
       </c>
       <c r="AE6" t="n">
-        <v>452739.7759496145</v>
+        <v>507733.15804807</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.18531969957327e-06</v>
+        <v>4.813954449516379e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5375</v>
       </c>
       <c r="AH6" t="n">
-        <v>409530.9271572489</v>
+        <v>459275.8180519245</v>
       </c>
     </row>
   </sheetData>
@@ -7153,28 +7153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.030027464421</v>
+        <v>388.2976459412474</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.3488169935707</v>
+        <v>531.2859696599457</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.5548246349055</v>
+        <v>480.5807823801414</v>
       </c>
       <c r="AD2" t="n">
-        <v>343030.0274644211</v>
+        <v>388297.6459412473</v>
       </c>
       <c r="AE2" t="n">
-        <v>469348.8169935707</v>
+        <v>531285.9696599457</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.977274264411063e-06</v>
+        <v>4.705546218857579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>424554.8246349054</v>
+        <v>480580.7823801414</v>
       </c>
     </row>
     <row r="3">
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>293.8612774167097</v>
+        <v>339.0435550389644</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.0739640061324</v>
+        <v>463.8943495503098</v>
       </c>
       <c r="AC3" t="n">
-        <v>363.7005891957391</v>
+        <v>419.6209239090362</v>
       </c>
       <c r="AD3" t="n">
-        <v>293861.2774167097</v>
+        <v>339043.5550389644</v>
       </c>
       <c r="AE3" t="n">
-        <v>402073.9640061324</v>
+        <v>463894.3495503098</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.227027401318717e-06</v>
+        <v>5.100278052290501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>363700.5891957391</v>
+        <v>419620.9239090362</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1553.680337495513</v>
+        <v>1655.285188470226</v>
       </c>
       <c r="AB2" t="n">
-        <v>2125.813981300292</v>
+        <v>2264.83422089356</v>
       </c>
       <c r="AC2" t="n">
-        <v>1922.929278523653</v>
+        <v>2048.681621566271</v>
       </c>
       <c r="AD2" t="n">
-        <v>1553680.337495513</v>
+        <v>1655285.188470226</v>
       </c>
       <c r="AE2" t="n">
-        <v>2125813.981300292</v>
+        <v>2264834.22089356</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.37699649863075e-06</v>
+        <v>2.007504315228757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.62916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1922929.278523653</v>
+        <v>2048681.621566271</v>
       </c>
     </row>
     <row r="3">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>662.4987706751521</v>
+        <v>721.8180492422345</v>
       </c>
       <c r="AB3" t="n">
-        <v>906.4600454207408</v>
+        <v>987.6232993380959</v>
       </c>
       <c r="AC3" t="n">
-        <v>819.9487709104487</v>
+        <v>893.3659177872737</v>
       </c>
       <c r="AD3" t="n">
-        <v>662498.7706751521</v>
+        <v>721818.0492422344</v>
       </c>
       <c r="AE3" t="n">
-        <v>906460.0454207408</v>
+        <v>987623.2993380958</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.286319699638131e-06</v>
+        <v>3.33319414216379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.62916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>819948.7709104487</v>
+        <v>893365.9177872736</v>
       </c>
     </row>
     <row r="4">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>526.5187428049669</v>
+        <v>585.6673396629059</v>
       </c>
       <c r="AB4" t="n">
-        <v>720.4061722733132</v>
+        <v>801.3358919462728</v>
       </c>
       <c r="AC4" t="n">
-        <v>651.6516182879606</v>
+        <v>724.8575191009079</v>
       </c>
       <c r="AD4" t="n">
-        <v>526518.7428049669</v>
+        <v>585667.3396629059</v>
       </c>
       <c r="AE4" t="n">
-        <v>720406.1722733133</v>
+        <v>801335.8919462728</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.612509486052128e-06</v>
+        <v>3.808741759358742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>651651.6182879605</v>
+        <v>724857.5191009078</v>
       </c>
     </row>
     <row r="5">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.5923457013428</v>
+        <v>515.9633484720954</v>
       </c>
       <c r="AB5" t="n">
-        <v>647.9899408082869</v>
+        <v>705.9638160759459</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.1466903171372</v>
+        <v>638.5876202960957</v>
       </c>
       <c r="AD5" t="n">
-        <v>473592.3457013427</v>
+        <v>515963.3484720954</v>
       </c>
       <c r="AE5" t="n">
-        <v>647989.9408082869</v>
+        <v>705963.816075946</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.7885412965103e-06</v>
+        <v>4.065376122237448e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.17291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>586146.6903171372</v>
+        <v>638587.6202960957</v>
       </c>
     </row>
     <row r="6">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>432.5187151564068</v>
+        <v>483.2784702164772</v>
       </c>
       <c r="AB6" t="n">
-        <v>591.7911874560133</v>
+        <v>661.2429236915484</v>
       </c>
       <c r="AC6" t="n">
-        <v>535.3114671093588</v>
+        <v>598.1348271146986</v>
       </c>
       <c r="AD6" t="n">
-        <v>432518.7151564068</v>
+        <v>483278.4702164772</v>
       </c>
       <c r="AE6" t="n">
-        <v>591791.1874560133</v>
+        <v>661242.9236915484</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.896074747418904e-06</v>
+        <v>4.222147665916114e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.75833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>535311.4671093588</v>
+        <v>598134.8271146986</v>
       </c>
     </row>
     <row r="7">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>407.9363916494621</v>
+        <v>450.2220535656431</v>
       </c>
       <c r="AB7" t="n">
-        <v>558.1565679382381</v>
+        <v>616.0136760836997</v>
       </c>
       <c r="AC7" t="n">
-        <v>504.8868884718752</v>
+        <v>557.2221954188951</v>
       </c>
       <c r="AD7" t="n">
-        <v>407936.391649462</v>
+        <v>450222.0535656431</v>
       </c>
       <c r="AE7" t="n">
-        <v>558156.5679382381</v>
+        <v>616013.6760836997</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.971004175659808e-06</v>
+        <v>4.33138625198428e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.4875</v>
       </c>
       <c r="AH7" t="n">
-        <v>504886.8884718752</v>
+        <v>557222.1954188951</v>
       </c>
     </row>
     <row r="8">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>390.9723663001596</v>
+        <v>433.2580282163407</v>
       </c>
       <c r="AB8" t="n">
-        <v>534.9456400553436</v>
+        <v>592.8027482008049</v>
       </c>
       <c r="AC8" t="n">
-        <v>483.8911789693822</v>
+        <v>536.2264859164021</v>
       </c>
       <c r="AD8" t="n">
-        <v>390972.3663001596</v>
+        <v>433258.0282163407</v>
       </c>
       <c r="AE8" t="n">
-        <v>534945.6400553436</v>
+        <v>592802.7482008049</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.016171216236162e-06</v>
+        <v>4.397234661151119e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.33125</v>
       </c>
       <c r="AH8" t="n">
-        <v>483891.1789693822</v>
+        <v>536226.4859164021</v>
       </c>
     </row>
     <row r="9">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>386.5035406865607</v>
+        <v>428.7892026027418</v>
       </c>
       <c r="AB9" t="n">
-        <v>528.8311957001458</v>
+        <v>586.6883038456073</v>
       </c>
       <c r="AC9" t="n">
-        <v>478.3602886017679</v>
+        <v>530.6955955487878</v>
       </c>
       <c r="AD9" t="n">
-        <v>386503.5406865607</v>
+        <v>428789.2026027418</v>
       </c>
       <c r="AE9" t="n">
-        <v>528831.1957001458</v>
+        <v>586688.3038456072</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.029482032829855e-06</v>
+        <v>4.41664031815724e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.28541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>478360.2886017679</v>
+        <v>530695.5955487877</v>
       </c>
     </row>
     <row r="10">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>387.727100766736</v>
+        <v>430.012762682917</v>
       </c>
       <c r="AB10" t="n">
-        <v>530.5053245815025</v>
+        <v>588.3624327269639</v>
       </c>
       <c r="AC10" t="n">
-        <v>479.8746409723425</v>
+        <v>532.2099479193624</v>
       </c>
       <c r="AD10" t="n">
-        <v>387727.100766736</v>
+        <v>430012.7626829169</v>
       </c>
       <c r="AE10" t="n">
-        <v>530505.3245815025</v>
+        <v>588362.4327269639</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.029631592566863e-06</v>
+        <v>4.416858359247197e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.28333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>479874.6409723426</v>
+        <v>532209.9479193625</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.519395584884</v>
+        <v>332.1315674711468</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.3967214997483</v>
+        <v>454.4370632246516</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.8514905355779</v>
+        <v>411.0662277169141</v>
       </c>
       <c r="AD2" t="n">
-        <v>287519.395584884</v>
+        <v>332131.5674711468</v>
       </c>
       <c r="AE2" t="n">
-        <v>393396.7214997483</v>
+        <v>454437.0632246516</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.159470867913181e-06</v>
+        <v>5.06221448276741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>355851.4905355779</v>
+        <v>411066.2277169141</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.1739325196572</v>
+        <v>329.78610440592</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.1875554593774</v>
+        <v>451.2278971842806</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.9486027980072</v>
+        <v>408.1633399793433</v>
       </c>
       <c r="AD3" t="n">
-        <v>285173.9325196572</v>
+        <v>329786.10440592</v>
       </c>
       <c r="AE3" t="n">
-        <v>390187.5554593775</v>
+        <v>451227.8971842806</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.19043554387902e-06</v>
+        <v>5.111827167195166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>352948.6027980072</v>
+        <v>408163.3399793433</v>
       </c>
     </row>
   </sheetData>
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>984.129753767079</v>
+        <v>1058.143417818814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1346.529745844654</v>
+        <v>1447.798506252646</v>
       </c>
       <c r="AC2" t="n">
-        <v>1218.018836767608</v>
+        <v>1309.622648813859</v>
       </c>
       <c r="AD2" t="n">
-        <v>984129.753767079</v>
+        <v>1058143.417818815</v>
       </c>
       <c r="AE2" t="n">
-        <v>1346529.745844654</v>
+        <v>1447798.506252646</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.77335918090836e-06</v>
+        <v>2.633160315838872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1218018.836767608</v>
+        <v>1309622.648813859</v>
       </c>
     </row>
     <row r="3">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.2211591087314</v>
+        <v>565.5351846945481</v>
       </c>
       <c r="AB3" t="n">
-        <v>706.3165639627938</v>
+        <v>773.7901893505722</v>
       </c>
       <c r="AC3" t="n">
-        <v>638.9067024197076</v>
+        <v>699.9407397003046</v>
       </c>
       <c r="AD3" t="n">
-        <v>516221.1591087314</v>
+        <v>565535.1846945481</v>
       </c>
       <c r="AE3" t="n">
-        <v>706316.5639627938</v>
+        <v>773790.1893505722</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.59154559124942e-06</v>
+        <v>3.848038841217577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>638906.7024197076</v>
+        <v>699940.7397003046</v>
       </c>
     </row>
     <row r="4">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.57752342446</v>
+        <v>475.8062081557052</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.662186821483</v>
+        <v>651.019045087064</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.9582868862641</v>
+        <v>588.8867011349223</v>
       </c>
       <c r="AD4" t="n">
-        <v>426577.52342446</v>
+        <v>475806.2081557052</v>
       </c>
       <c r="AE4" t="n">
-        <v>583662.1868214831</v>
+        <v>651019.045087064</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.884021577158111e-06</v>
+        <v>4.282319819217834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.23125</v>
       </c>
       <c r="AH4" t="n">
-        <v>527958.2868862641</v>
+        <v>588886.7011349223</v>
       </c>
     </row>
     <row r="5">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.2121727641879</v>
+        <v>427.5261088414536</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.4865803194185</v>
+        <v>584.9600832376489</v>
       </c>
       <c r="AC5" t="n">
-        <v>468.0983873907096</v>
+        <v>529.13231389008</v>
       </c>
       <c r="AD5" t="n">
-        <v>378212.1727641879</v>
+        <v>427526.1088414536</v>
       </c>
       <c r="AE5" t="n">
-        <v>517486.5803194186</v>
+        <v>584960.0832376488</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.037023368829644e-06</v>
+        <v>4.509503488729929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>468098.3873907096</v>
+        <v>529132.31389008</v>
       </c>
     </row>
     <row r="6">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>355.1742531757112</v>
+        <v>396.2550659395552</v>
       </c>
       <c r="AB6" t="n">
-        <v>485.9650823771838</v>
+        <v>542.1736627582245</v>
       </c>
       <c r="AC6" t="n">
-        <v>439.5852569713815</v>
+        <v>490.4293693300937</v>
       </c>
       <c r="AD6" t="n">
-        <v>355174.2531757112</v>
+        <v>396255.0659395552</v>
       </c>
       <c r="AE6" t="n">
-        <v>485965.0823771838</v>
+        <v>542173.6627582245</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.112124858034268e-06</v>
+        <v>4.621017424069707e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.40833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>439585.2569713815</v>
+        <v>490429.3693300937</v>
       </c>
     </row>
     <row r="7">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>354.7463687547258</v>
+        <v>395.8271815185698</v>
       </c>
       <c r="AB7" t="n">
-        <v>485.3796320354633</v>
+        <v>541.5882124165039</v>
       </c>
       <c r="AC7" t="n">
-        <v>439.05568118859</v>
+        <v>489.8997935473021</v>
       </c>
       <c r="AD7" t="n">
-        <v>354746.3687547258</v>
+        <v>395827.1815185698</v>
       </c>
       <c r="AE7" t="n">
-        <v>485379.6320354633</v>
+        <v>541588.2124165039</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.118810911938613e-06</v>
+        <v>4.630945165725215e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.3875</v>
       </c>
       <c r="AH7" t="n">
-        <v>439055.68118859</v>
+        <v>489899.7935473021</v>
       </c>
     </row>
   </sheetData>
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1232.068543045741</v>
+        <v>1315.568352916187</v>
       </c>
       <c r="AB2" t="n">
-        <v>1685.770535623117</v>
+        <v>1800.018659239487</v>
       </c>
       <c r="AC2" t="n">
-        <v>1524.882961697052</v>
+        <v>1628.227404743725</v>
       </c>
       <c r="AD2" t="n">
-        <v>1232068.543045741</v>
+        <v>1315568.352916187</v>
       </c>
       <c r="AE2" t="n">
-        <v>1685770.535623117</v>
+        <v>1800018.659239487</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.568126765370598e-06</v>
+        <v>2.305840208480551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.24166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1524882.961697052</v>
+        <v>1628227.404743725</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +10037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>592.0866181519544</v>
+        <v>642.2377443903857</v>
       </c>
       <c r="AB3" t="n">
-        <v>810.1190319735689</v>
+        <v>878.7380154045289</v>
       </c>
       <c r="AC3" t="n">
-        <v>732.8024085712133</v>
+        <v>794.8724925308704</v>
       </c>
       <c r="AD3" t="n">
-        <v>592086.6181519545</v>
+        <v>642237.7443903857</v>
       </c>
       <c r="AE3" t="n">
-        <v>810119.0319735688</v>
+        <v>878738.0154045289</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.431487727126663e-06</v>
+        <v>3.575362841479606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.05416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>732802.4085712133</v>
+        <v>794872.4925308705</v>
       </c>
     </row>
     <row r="4">
@@ -10143,28 +10143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>476.4777298614393</v>
+        <v>526.6287665913195</v>
       </c>
       <c r="AB4" t="n">
-        <v>651.9378507102959</v>
+        <v>720.5567116717077</v>
       </c>
       <c r="AC4" t="n">
-        <v>589.717817239025</v>
+        <v>651.7877904174557</v>
       </c>
       <c r="AD4" t="n">
-        <v>476477.7298614393</v>
+        <v>526628.7665913195</v>
       </c>
       <c r="AE4" t="n">
-        <v>651937.850710296</v>
+        <v>720556.7116717077</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.741822344930987e-06</v>
+        <v>4.031692046247398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.575</v>
       </c>
       <c r="AH4" t="n">
-        <v>589717.8172390249</v>
+        <v>651787.7904174556</v>
       </c>
     </row>
     <row r="5">
@@ -10249,28 +10249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>422.5642589225172</v>
+        <v>472.6299547978258</v>
       </c>
       <c r="AB5" t="n">
-        <v>578.1710612771909</v>
+        <v>646.6731551164049</v>
       </c>
       <c r="AC5" t="n">
-        <v>522.9912266570761</v>
+        <v>584.955576803568</v>
       </c>
       <c r="AD5" t="n">
-        <v>422564.2589225172</v>
+        <v>472629.9547978258</v>
       </c>
       <c r="AE5" t="n">
-        <v>578171.0612771909</v>
+        <v>646673.1551164049</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.90437857330468e-06</v>
+        <v>4.270721629697195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.92916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>522991.2266570761</v>
+        <v>584955.5768035679</v>
       </c>
     </row>
     <row r="6">
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>392.0371929428464</v>
+        <v>442.1028888181551</v>
       </c>
       <c r="AB6" t="n">
-        <v>536.4025828447038</v>
+        <v>604.9046766839178</v>
       </c>
       <c r="AC6" t="n">
-        <v>485.2090731837579</v>
+        <v>547.1734233302498</v>
       </c>
       <c r="AD6" t="n">
-        <v>392037.1929428465</v>
+        <v>442102.888818155</v>
       </c>
       <c r="AE6" t="n">
-        <v>536402.5828447038</v>
+        <v>604904.6766839179</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.005690561934958e-06</v>
+        <v>4.419695081425511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.56041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>485209.073183758</v>
+        <v>547173.4233302497</v>
       </c>
     </row>
     <row r="7">
@@ -10461,28 +10461,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>372.3917864206697</v>
+        <v>414.0990656828827</v>
       </c>
       <c r="AB7" t="n">
-        <v>509.5228709468942</v>
+        <v>566.5886104287545</v>
       </c>
       <c r="AC7" t="n">
-        <v>460.8947232635625</v>
+        <v>512.5141886615426</v>
       </c>
       <c r="AD7" t="n">
-        <v>372391.7864206698</v>
+        <v>414099.0656828827</v>
       </c>
       <c r="AE7" t="n">
-        <v>509522.8709468942</v>
+        <v>566588.6104287545</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.064497219997043e-06</v>
+        <v>4.506166889496383e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.35625</v>
       </c>
       <c r="AH7" t="n">
-        <v>460894.7232635625</v>
+        <v>512514.1886615426</v>
       </c>
     </row>
     <row r="8">
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>371.0418877921403</v>
+        <v>412.7491670543533</v>
       </c>
       <c r="AB8" t="n">
-        <v>507.6758800900157</v>
+        <v>564.7416195718762</v>
       </c>
       <c r="AC8" t="n">
-        <v>459.2240066217967</v>
+        <v>510.8434720197766</v>
       </c>
       <c r="AD8" t="n">
-        <v>371041.8877921403</v>
+        <v>412749.1670543533</v>
       </c>
       <c r="AE8" t="n">
-        <v>507675.8800900157</v>
+        <v>564741.6195718761</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.070743523055452e-06</v>
+        <v>4.515351718851062e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.33541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>459224.0066217966</v>
+        <v>510843.4720197766</v>
       </c>
     </row>
     <row r="9">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>372.4544858881081</v>
+        <v>414.1617651503211</v>
       </c>
       <c r="AB9" t="n">
-        <v>509.6086591243485</v>
+        <v>566.674398606209</v>
       </c>
       <c r="AC9" t="n">
-        <v>460.9723239377652</v>
+        <v>512.5917893357453</v>
       </c>
       <c r="AD9" t="n">
-        <v>372454.4858881081</v>
+        <v>414161.7651503211</v>
       </c>
       <c r="AE9" t="n">
-        <v>509608.6591243485</v>
+        <v>566674.398606209</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.070743523055452e-06</v>
+        <v>4.515351718851062e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.33541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>460972.3239377652</v>
+        <v>512591.7893357452</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1976.152130483243</v>
+        <v>2087.547475990931</v>
       </c>
       <c r="AB2" t="n">
-        <v>2703.858526606195</v>
+        <v>2856.274552745615</v>
       </c>
       <c r="AC2" t="n">
-        <v>2445.806063716176</v>
+        <v>2583.675718238086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1976152.130483243</v>
+        <v>2087547.475990931</v>
       </c>
       <c r="AE2" t="n">
-        <v>2703858.526606196</v>
+        <v>2856274.552745615</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.204197632423908e-06</v>
+        <v>1.742200027182529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.43958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2445806.063716176</v>
+        <v>2583675.718238086</v>
       </c>
     </row>
     <row r="3">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>747.593513061453</v>
+        <v>807.5822281737367</v>
       </c>
       <c r="AB3" t="n">
-        <v>1022.89042606876</v>
+        <v>1104.969632600715</v>
       </c>
       <c r="AC3" t="n">
-        <v>925.2671994404863</v>
+        <v>999.5128816999218</v>
       </c>
       <c r="AD3" t="n">
-        <v>747593.513061453</v>
+        <v>807582.2281737367</v>
       </c>
       <c r="AE3" t="n">
-        <v>1022890.42606876</v>
+        <v>1104969.632600715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.150762556091352e-06</v>
+        <v>3.11166413451846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.24375</v>
       </c>
       <c r="AH3" t="n">
-        <v>925267.1994404863</v>
+        <v>999512.8816999218</v>
       </c>
     </row>
     <row r="4">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>586.6071918119113</v>
+        <v>638.0139117158658</v>
       </c>
       <c r="AB4" t="n">
-        <v>802.6218391198925</v>
+        <v>872.9587811969044</v>
       </c>
       <c r="AC4" t="n">
-        <v>726.0207372811153</v>
+        <v>789.6448203248156</v>
       </c>
       <c r="AD4" t="n">
-        <v>586607.1918119113</v>
+        <v>638013.9117158658</v>
       </c>
       <c r="AE4" t="n">
-        <v>802621.8391198925</v>
+        <v>872958.7811969044</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492508226839082e-06</v>
+        <v>3.606092375228217e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>726020.7372811153</v>
+        <v>789644.8203248156</v>
       </c>
     </row>
     <row r="5">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>517.2198347689806</v>
+        <v>568.5412138183634</v>
       </c>
       <c r="AB5" t="n">
-        <v>707.6829960596074</v>
+        <v>777.9031710144219</v>
       </c>
       <c r="AC5" t="n">
-        <v>640.1427241550008</v>
+        <v>703.6611841667623</v>
       </c>
       <c r="AD5" t="n">
-        <v>517219.8347689806</v>
+        <v>568541.2138183634</v>
       </c>
       <c r="AE5" t="n">
-        <v>707682.9960596074</v>
+        <v>777903.1710144219</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.676027416638208e-06</v>
+        <v>3.871602893475109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>640142.7241550008</v>
+        <v>703661.1841667623</v>
       </c>
     </row>
     <row r="6">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.143521704907</v>
+        <v>525.5501521003105</v>
       </c>
       <c r="AB6" t="n">
-        <v>648.7440841325326</v>
+        <v>719.0809037399963</v>
       </c>
       <c r="AC6" t="n">
-        <v>586.8288592609636</v>
+        <v>650.4528315234372</v>
       </c>
       <c r="AD6" t="n">
-        <v>474143.5217049069</v>
+        <v>525550.1521003104</v>
       </c>
       <c r="AE6" t="n">
-        <v>648744.0841325326</v>
+        <v>719080.9037399963</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.787050644441364e-06</v>
+        <v>4.03222824706197e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.99166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>586828.8592609635</v>
+        <v>650452.8315234372</v>
       </c>
     </row>
     <row r="7">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>448.4319976188818</v>
+        <v>499.8386280142851</v>
       </c>
       <c r="AB7" t="n">
-        <v>613.5644425656459</v>
+        <v>683.9012621731094</v>
       </c>
       <c r="AC7" t="n">
-        <v>555.0067133102835</v>
+        <v>618.6306855727571</v>
       </c>
       <c r="AD7" t="n">
-        <v>448431.9976188818</v>
+        <v>499838.6280142851</v>
       </c>
       <c r="AE7" t="n">
-        <v>613564.4425656459</v>
+        <v>683901.2621731095</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.864105176055741e-06</v>
+        <v>4.143708624915633e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.69583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>555006.7133102835</v>
+        <v>618630.6855727572</v>
       </c>
     </row>
     <row r="8">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>428.1602764030117</v>
+        <v>470.9850010986369</v>
       </c>
       <c r="AB8" t="n">
-        <v>585.8277792728708</v>
+        <v>644.4224568949392</v>
       </c>
       <c r="AC8" t="n">
-        <v>529.9171982335195</v>
+        <v>582.9196820614841</v>
       </c>
       <c r="AD8" t="n">
-        <v>428160.2764030116</v>
+        <v>470985.0010986369</v>
       </c>
       <c r="AE8" t="n">
-        <v>585827.7792728707</v>
+        <v>644422.4568949392</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.921601973500819e-06</v>
+        <v>4.226893410680485e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.48541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>529917.1982335194</v>
+        <v>582919.6820614841</v>
       </c>
     </row>
     <row r="9">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>411.4489803155981</v>
+        <v>454.2737050112233</v>
       </c>
       <c r="AB9" t="n">
-        <v>562.9626467157207</v>
+        <v>621.5573243377891</v>
       </c>
       <c r="AC9" t="n">
-        <v>509.2342818362086</v>
+        <v>562.2367656641734</v>
       </c>
       <c r="AD9" t="n">
-        <v>411448.9803155981</v>
+        <v>454273.7050112233</v>
       </c>
       <c r="AE9" t="n">
-        <v>562962.6467157206</v>
+        <v>621557.3243377891</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.964834859559267e-06</v>
+        <v>4.289441561613647e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>509234.2818362086</v>
+        <v>562236.7656641734</v>
       </c>
     </row>
     <row r="10">
@@ -11818,28 +11818,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>403.2783038646091</v>
+        <v>446.1030285602344</v>
       </c>
       <c r="AB10" t="n">
-        <v>551.783166730673</v>
+        <v>610.3778443527412</v>
       </c>
       <c r="AC10" t="n">
-        <v>499.1217557304352</v>
+        <v>552.1242395583997</v>
       </c>
       <c r="AD10" t="n">
-        <v>403278.3038646091</v>
+        <v>446103.0285602344</v>
       </c>
       <c r="AE10" t="n">
-        <v>551783.1667306729</v>
+        <v>610377.8443527413</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.983657340564305e-06</v>
+        <v>4.316673409638969e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>499121.7557304351</v>
+        <v>552124.2395583998</v>
       </c>
     </row>
     <row r="11">
@@ -11924,28 +11924,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>403.3545300529811</v>
+        <v>446.1792547486063</v>
       </c>
       <c r="AB11" t="n">
-        <v>551.8874627644655</v>
+        <v>610.482140386534</v>
       </c>
       <c r="AC11" t="n">
-        <v>499.2160978971428</v>
+        <v>552.2185817251077</v>
       </c>
       <c r="AD11" t="n">
-        <v>403354.5300529811</v>
+        <v>446179.2547486063</v>
       </c>
       <c r="AE11" t="n">
-        <v>551887.4627644655</v>
+        <v>610482.1403865339</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.987921808917009e-06</v>
+        <v>4.322843125207205e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.25208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>499216.0978971429</v>
+        <v>552218.5817251077</v>
       </c>
     </row>
   </sheetData>
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>780.8747185475677</v>
+        <v>853.6516607917865</v>
       </c>
       <c r="AB2" t="n">
-        <v>1068.427239678023</v>
+        <v>1168.003862748656</v>
       </c>
       <c r="AC2" t="n">
-        <v>966.4580434702008</v>
+        <v>1056.53121339164</v>
       </c>
       <c r="AD2" t="n">
-        <v>780874.7185475677</v>
+        <v>853651.6607917865</v>
       </c>
       <c r="AE2" t="n">
-        <v>1068427.239678023</v>
+        <v>1168003.862748656</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004010005681089e-06</v>
+        <v>3.009390991903107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.5375</v>
       </c>
       <c r="AH2" t="n">
-        <v>966458.0434702007</v>
+        <v>1056531.21339164</v>
       </c>
     </row>
     <row r="3">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.5600133024362</v>
+        <v>499.0599962256854</v>
       </c>
       <c r="AB3" t="n">
-        <v>605.5301345702202</v>
+        <v>682.8359038091372</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.7391883937191</v>
+        <v>617.6670035158024</v>
       </c>
       <c r="AD3" t="n">
-        <v>442560.0133024362</v>
+        <v>499059.9962256855</v>
       </c>
       <c r="AE3" t="n">
-        <v>605530.1345702201</v>
+        <v>682835.9038091372</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.773987653335012e-06</v>
+        <v>4.16565457853572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.94791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>547739.1883937191</v>
+        <v>617667.0035158024</v>
       </c>
     </row>
     <row r="4">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.8512073219102</v>
+        <v>417.3407218665322</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.6784944246455</v>
+        <v>571.0239874310014</v>
       </c>
       <c r="AC4" t="n">
-        <v>456.5126872374722</v>
+        <v>516.5262595077857</v>
       </c>
       <c r="AD4" t="n">
-        <v>368851.2073219102</v>
+        <v>417340.7218665322</v>
       </c>
       <c r="AE4" t="n">
-        <v>504678.4944246454</v>
+        <v>571023.9874310014</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.039502672742945e-06</v>
+        <v>4.564374397975768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.90416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>456512.6872374722</v>
+        <v>516526.2595077857</v>
       </c>
     </row>
     <row r="5">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.9933454205849</v>
+        <v>379.5577324411512</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.825650535351</v>
+        <v>519.3276344313432</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.5587814316454</v>
+        <v>469.7637338821278</v>
       </c>
       <c r="AD5" t="n">
-        <v>338993.3454205849</v>
+        <v>379557.7324411512</v>
       </c>
       <c r="AE5" t="n">
-        <v>463825.650535351</v>
+        <v>519327.6344313432</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.155953837636059e-06</v>
+        <v>4.739247320582189e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.50208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>419558.7814316454</v>
+        <v>469763.7338821278</v>
       </c>
     </row>
     <row r="6">
@@ -12645,28 +12645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.1416110909767</v>
+        <v>379.5354059109507</v>
       </c>
       <c r="AB6" t="n">
-        <v>464.0285141666007</v>
+        <v>519.297086287746</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.7422840426495</v>
+        <v>469.7361012104809</v>
       </c>
       <c r="AD6" t="n">
-        <v>339141.6110909766</v>
+        <v>379535.4059109507</v>
       </c>
       <c r="AE6" t="n">
-        <v>464028.5141666007</v>
+        <v>519297.086287746</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.160090081197836e-06</v>
+        <v>4.74545865389881e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.4875</v>
       </c>
       <c r="AH6" t="n">
-        <v>419742.2840426496</v>
+        <v>469736.1012104809</v>
       </c>
     </row>
   </sheetData>
@@ -12942,28 +12942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.5311639930445</v>
+        <v>597.453256591587</v>
       </c>
       <c r="AB2" t="n">
-        <v>742.3150733610073</v>
+        <v>817.4619034460524</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.4695646051809</v>
+        <v>739.4444866961477</v>
       </c>
       <c r="AD2" t="n">
-        <v>542531.1639930445</v>
+        <v>597453.256591587</v>
       </c>
       <c r="AE2" t="n">
-        <v>742315.0733610073</v>
+        <v>817461.9034460523</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.41679018464226e-06</v>
+        <v>3.706744088424335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.28541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>671469.564605181</v>
+        <v>739444.4866961477</v>
       </c>
     </row>
     <row r="3">
@@ -13048,28 +13048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.1071779863622</v>
+        <v>386.3982274553154</v>
       </c>
       <c r="AB3" t="n">
-        <v>474.9273542088769</v>
+        <v>528.687101491064</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.600954087909</v>
+        <v>478.2299465417634</v>
       </c>
       <c r="AD3" t="n">
-        <v>347107.1779863621</v>
+        <v>386398.2274553154</v>
       </c>
       <c r="AE3" t="n">
-        <v>474927.3542088768</v>
+        <v>528687.1014910641</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091748112648838e-06</v>
+        <v>4.74195861613637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>429600.954087909</v>
+        <v>478229.9465417634</v>
       </c>
     </row>
     <row r="4">
@@ -13154,28 +13154,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>312.720790201059</v>
+        <v>359.7846012989701</v>
       </c>
       <c r="AB4" t="n">
-        <v>427.8783814206619</v>
+        <v>492.2731640736309</v>
       </c>
       <c r="AC4" t="n">
-        <v>387.0422692289532</v>
+        <v>445.2913042041679</v>
       </c>
       <c r="AD4" t="n">
-        <v>312720.790201059</v>
+        <v>359784.6012989701</v>
       </c>
       <c r="AE4" t="n">
-        <v>427878.3814206619</v>
+        <v>492273.1640736309</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.218354510143811e-06</v>
+        <v>4.936140766681912e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.72708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>387042.2692289532</v>
+        <v>445291.3042041679</v>
       </c>
     </row>
     <row r="5">
@@ -13260,28 +13260,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.5059902024732</v>
+        <v>361.5698013003843</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.3209708200625</v>
+        <v>494.7157534730314</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.2517413242708</v>
+        <v>447.5007762994855</v>
       </c>
       <c r="AD5" t="n">
-        <v>314505.9902024732</v>
+        <v>361569.8013003843</v>
       </c>
       <c r="AE5" t="n">
-        <v>430320.9708200626</v>
+        <v>494715.7534730315</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.218023079783876e-06</v>
+        <v>4.935632436444882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>389251.7413242708</v>
+        <v>447500.7762994855</v>
       </c>
     </row>
   </sheetData>
@@ -23962,28 +23962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.4968493031967</v>
+        <v>455.0893290792649</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.3457020075199</v>
+        <v>622.6732971704778</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.9169192194566</v>
+        <v>563.2462316159881</v>
       </c>
       <c r="AD2" t="n">
-        <v>401496.8493031966</v>
+        <v>455089.3290792649</v>
       </c>
       <c r="AE2" t="n">
-        <v>549345.7020075199</v>
+        <v>622673.2971704778</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.768166443061814e-06</v>
+        <v>4.32520546418909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.90208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>496916.9192194566</v>
+        <v>563246.2316159881</v>
       </c>
     </row>
     <row r="3">
@@ -24068,28 +24068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.6571550280289</v>
+        <v>340.998544987037</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.1088718006726</v>
+        <v>466.5692530453322</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.5869022814675</v>
+        <v>422.0405383687443</v>
       </c>
       <c r="AD3" t="n">
-        <v>302657.1550280289</v>
+        <v>340998.544987037</v>
       </c>
       <c r="AE3" t="n">
-        <v>414108.8718006726</v>
+        <v>466569.2530453322</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.234098842878634e-06</v>
+        <v>5.053215648215963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>374586.9022814675</v>
+        <v>422040.5383687443</v>
       </c>
     </row>
     <row r="4">
@@ -24174,28 +24174,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.6603276720729</v>
+        <v>343.001717631081</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.8497009859935</v>
+        <v>469.310082230653</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.0661505761192</v>
+        <v>424.5197866633961</v>
       </c>
       <c r="AD4" t="n">
-        <v>304660.3276720729</v>
+        <v>343001.7176310809</v>
       </c>
       <c r="AE4" t="n">
-        <v>416849.7009859935</v>
+        <v>469310.082230653</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.233413143982656e-06</v>
+        <v>5.052144257216659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.04583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>377066.1505761193</v>
+        <v>424519.7866633961</v>
       </c>
     </row>
   </sheetData>
@@ -24471,28 +24471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.1711668940736</v>
+        <v>324.8364525030412</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.7107949408975</v>
+        <v>444.4555650875312</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.9945366167294</v>
+        <v>402.0373497528799</v>
       </c>
       <c r="AD2" t="n">
-        <v>281171.1668940735</v>
+        <v>324836.4525030412</v>
       </c>
       <c r="AE2" t="n">
-        <v>384710.7949408975</v>
+        <v>444455.5650875312</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.099512760822387e-06</v>
+        <v>5.051201970537571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>347994.5366167293</v>
+        <v>402037.3497528799</v>
       </c>
     </row>
   </sheetData>
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1100.910052293883</v>
+        <v>1183.711416485503</v>
       </c>
       <c r="AB2" t="n">
-        <v>1506.31370227219</v>
+        <v>1619.60618169754</v>
       </c>
       <c r="AC2" t="n">
-        <v>1362.55323665189</v>
+        <v>1465.033240847879</v>
       </c>
       <c r="AD2" t="n">
-        <v>1100910.052293883</v>
+        <v>1183711.416485503</v>
       </c>
       <c r="AE2" t="n">
-        <v>1506313.70227219</v>
+        <v>1619606.18169754</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.668563405041463e-06</v>
+        <v>2.46510354614742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1362553.23665189</v>
+        <v>1465033.240847879</v>
       </c>
     </row>
     <row r="3">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>548.7990156574589</v>
+        <v>606.7940442774357</v>
       </c>
       <c r="AB3" t="n">
-        <v>750.8910245263588</v>
+        <v>830.2423812442996</v>
       </c>
       <c r="AC3" t="n">
-        <v>679.2270390277342</v>
+        <v>751.0052136308434</v>
       </c>
       <c r="AD3" t="n">
-        <v>548799.0156574589</v>
+        <v>606794.0442774356</v>
       </c>
       <c r="AE3" t="n">
-        <v>750891.0245263588</v>
+        <v>830242.3812442996</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510846333775967e-06</v>
+        <v>3.709476177243968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.76666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>679227.0390277342</v>
+        <v>751005.2136308434</v>
       </c>
     </row>
     <row r="4">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.0277462589633</v>
+        <v>500.6403278936983</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.1160603713535</v>
+        <v>684.998183316625</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.2193696973412</v>
+        <v>619.6229181018741</v>
       </c>
       <c r="AD4" t="n">
-        <v>451027.7462589633</v>
+        <v>500640.3278936984</v>
       </c>
       <c r="AE4" t="n">
-        <v>617116.0603713534</v>
+        <v>684998.1833166251</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.813200362815664e-06</v>
+        <v>4.156168215991634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.39583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>558219.3696973412</v>
+        <v>619622.9181018741</v>
       </c>
     </row>
     <row r="5">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.3298662645614</v>
+        <v>450.027699245317</v>
       </c>
       <c r="AB5" t="n">
-        <v>547.748984330401</v>
+        <v>615.747751928322</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.4725900364346</v>
+        <v>556.9816506916796</v>
       </c>
       <c r="AD5" t="n">
-        <v>400329.8662645614</v>
+        <v>450027.699245317</v>
       </c>
       <c r="AE5" t="n">
-        <v>547748.9843304009</v>
+        <v>615747.751928322</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.969685883188881e-06</v>
+        <v>4.387356920015234e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.79375</v>
       </c>
       <c r="AH5" t="n">
-        <v>495472.5900364346</v>
+        <v>556981.6506916797</v>
       </c>
     </row>
     <row r="6">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>371.0489649924925</v>
+        <v>412.4496918425779</v>
       </c>
       <c r="AB6" t="n">
-        <v>507.6855634277616</v>
+        <v>564.3318643752114</v>
       </c>
       <c r="AC6" t="n">
-        <v>459.2327657953788</v>
+        <v>510.4728232839864</v>
       </c>
       <c r="AD6" t="n">
-        <v>371048.9649924925</v>
+        <v>412449.6918425779</v>
       </c>
       <c r="AE6" t="n">
-        <v>507685.5634277616</v>
+        <v>564331.8643752113</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.067700904307602e-06</v>
+        <v>4.532162430795011e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.45</v>
       </c>
       <c r="AH6" t="n">
-        <v>459232.7657953788</v>
+        <v>510472.8232839864</v>
       </c>
     </row>
     <row r="7">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>362.1180935702417</v>
+        <v>403.5188204203271</v>
       </c>
       <c r="AB7" t="n">
-        <v>495.4659511455982</v>
+        <v>552.1122520930478</v>
       </c>
       <c r="AC7" t="n">
-        <v>448.1793761590915</v>
+        <v>499.4194336476991</v>
       </c>
       <c r="AD7" t="n">
-        <v>362118.0935702417</v>
+        <v>403518.8204203271</v>
       </c>
       <c r="AE7" t="n">
-        <v>495465.9511455982</v>
+        <v>552112.2520930478</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.093704889502365e-06</v>
+        <v>4.570580219369239e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.3625</v>
       </c>
       <c r="AH7" t="n">
-        <v>448179.3761590915</v>
+        <v>499419.4336476991</v>
       </c>
     </row>
     <row r="8">
@@ -25404,28 +25404,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>362.9373159814541</v>
+        <v>404.3380428315396</v>
       </c>
       <c r="AB8" t="n">
-        <v>496.5868473901611</v>
+        <v>553.2331483376106</v>
       </c>
       <c r="AC8" t="n">
-        <v>449.193295639261</v>
+        <v>500.4333531278686</v>
       </c>
       <c r="AD8" t="n">
-        <v>362937.3159814541</v>
+        <v>404338.0428315395</v>
       </c>
       <c r="AE8" t="n">
-        <v>496586.8473901611</v>
+        <v>553233.1483376106</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.098782590753413e-06</v>
+        <v>4.578081917729886e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.34583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>449193.295639261</v>
+        <v>500433.3531278686</v>
       </c>
     </row>
   </sheetData>
@@ -25701,28 +25701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1745.087866504083</v>
+        <v>1855.793961724125</v>
       </c>
       <c r="AB2" t="n">
-        <v>2387.706206794027</v>
+        <v>2539.179170282314</v>
       </c>
       <c r="AC2" t="n">
-        <v>2159.826877584313</v>
+        <v>2296.843474030918</v>
       </c>
       <c r="AD2" t="n">
-        <v>1745087.866504082</v>
+        <v>1855793.961724126</v>
       </c>
       <c r="AE2" t="n">
-        <v>2387706.206794027</v>
+        <v>2539179.170282315</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289240455575669e-06</v>
+        <v>1.872195043282163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.96041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2159826.877584313</v>
+        <v>2296843.474030918</v>
       </c>
     </row>
     <row r="3">
@@ -25807,28 +25807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.1561747408014</v>
+        <v>768.2173557573112</v>
       </c>
       <c r="AB3" t="n">
-        <v>957.9845669907789</v>
+        <v>1051.108877504958</v>
       </c>
       <c r="AC3" t="n">
-        <v>866.5558644569626</v>
+        <v>950.792521476459</v>
       </c>
       <c r="AD3" t="n">
-        <v>700156.1747408013</v>
+        <v>768217.3557573112</v>
       </c>
       <c r="AE3" t="n">
-        <v>957984.5669907789</v>
+        <v>1051108.877504958</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.216841178989284e-06</v>
+        <v>3.219228072698289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>866555.8644569626</v>
+        <v>950792.521476459</v>
       </c>
     </row>
     <row r="4">
@@ -25913,28 +25913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>560.3078747917069</v>
+        <v>611.3965204899262</v>
       </c>
       <c r="AB4" t="n">
-        <v>766.6379533288679</v>
+        <v>836.5396922451492</v>
       </c>
       <c r="AC4" t="n">
-        <v>693.4711030462853</v>
+        <v>756.7015181081038</v>
       </c>
       <c r="AD4" t="n">
-        <v>560307.8747917069</v>
+        <v>611396.5204899262</v>
       </c>
       <c r="AE4" t="n">
-        <v>766637.9533288679</v>
+        <v>836539.6922451493</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.551791632024987e-06</v>
+        <v>3.705632742367571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>693471.1030462853</v>
+        <v>756701.5181081038</v>
       </c>
     </row>
     <row r="5">
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>495.7582377869301</v>
+        <v>546.7615426305777</v>
       </c>
       <c r="AB5" t="n">
-        <v>678.3182922499303</v>
+        <v>748.1032640440141</v>
       </c>
       <c r="AC5" t="n">
-        <v>613.5805464632986</v>
+        <v>676.7053384931781</v>
       </c>
       <c r="AD5" t="n">
-        <v>495758.2377869301</v>
+        <v>546761.5426305777</v>
       </c>
       <c r="AE5" t="n">
-        <v>678318.2922499303</v>
+        <v>748103.264044014</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.730461528398613e-06</v>
+        <v>3.965091629906962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>613580.5464632986</v>
+        <v>676705.3384931781</v>
       </c>
     </row>
     <row r="6">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>454.0387777714433</v>
+        <v>505.1273339611116</v>
       </c>
       <c r="AB6" t="n">
-        <v>621.2358865240636</v>
+        <v>691.1375029707967</v>
       </c>
       <c r="AC6" t="n">
-        <v>561.9460054242491</v>
+        <v>625.1763097048408</v>
       </c>
       <c r="AD6" t="n">
-        <v>454038.7777714433</v>
+        <v>505127.3339611116</v>
       </c>
       <c r="AE6" t="n">
-        <v>621235.8865240637</v>
+        <v>691137.5029707968</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.837515192449864e-06</v>
+        <v>4.120551643851726e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>561946.0054242491</v>
+        <v>625176.3097048409</v>
       </c>
     </row>
     <row r="7">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>429.1101507579887</v>
+        <v>480.198706947657</v>
       </c>
       <c r="AB7" t="n">
-        <v>587.1274392708494</v>
+        <v>657.0290557175824</v>
       </c>
       <c r="AC7" t="n">
-        <v>531.0928205053752</v>
+        <v>594.323124785967</v>
       </c>
       <c r="AD7" t="n">
-        <v>429110.1507579887</v>
+        <v>480198.706947657</v>
       </c>
       <c r="AE7" t="n">
-        <v>587127.4392708495</v>
+        <v>657029.0557175825</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.915358923235054e-06</v>
+        <v>4.233593897758929e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.59583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>531092.8205053753</v>
+        <v>594323.1247859671</v>
       </c>
     </row>
     <row r="8">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>409.28975377494</v>
+        <v>451.8494166324526</v>
       </c>
       <c r="AB8" t="n">
-        <v>560.0082977044405</v>
+        <v>618.2403060258999</v>
       </c>
       <c r="AC8" t="n">
-        <v>506.56189174811</v>
+        <v>559.2363189245067</v>
       </c>
       <c r="AD8" t="n">
-        <v>409289.75377494</v>
+        <v>451849.4166324526</v>
       </c>
       <c r="AE8" t="n">
-        <v>560008.2977044404</v>
+        <v>618240.3060258999</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.968589207714832e-06</v>
+        <v>4.31089326757357e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.40625</v>
       </c>
       <c r="AH8" t="n">
-        <v>506561.8917481101</v>
+        <v>559236.3189245067</v>
       </c>
     </row>
     <row r="9">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>396.9582642677852</v>
+        <v>439.5179271252978</v>
       </c>
       <c r="AB9" t="n">
-        <v>543.1358097338295</v>
+        <v>601.3678180552891</v>
       </c>
       <c r="AC9" t="n">
-        <v>491.2996903487287</v>
+        <v>543.9741175251253</v>
       </c>
       <c r="AD9" t="n">
-        <v>396958.2642677852</v>
+        <v>439517.9271252978</v>
       </c>
       <c r="AE9" t="n">
-        <v>543135.8097338296</v>
+        <v>601367.8180552891</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.002099080395695e-06</v>
+        <v>4.359555266398386e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.28958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>491299.6903487287</v>
+        <v>543974.1175251253</v>
       </c>
     </row>
     <row r="10">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>395.0714518282107</v>
+        <v>437.6311146857233</v>
       </c>
       <c r="AB10" t="n">
-        <v>540.5541897137138</v>
+        <v>598.7861980351734</v>
       </c>
       <c r="AC10" t="n">
-        <v>488.9644565200063</v>
+        <v>541.6388836964029</v>
       </c>
       <c r="AD10" t="n">
-        <v>395071.4518282107</v>
+        <v>437631.1146857233</v>
       </c>
       <c r="AE10" t="n">
-        <v>540554.1897137137</v>
+        <v>598786.1980351734</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.004323186989557e-06</v>
+        <v>4.362785045081448e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.28125</v>
       </c>
       <c r="AH10" t="n">
-        <v>488964.4565200062</v>
+        <v>541638.8836964029</v>
       </c>
     </row>
   </sheetData>
@@ -26846,28 +26846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.9411510115548</v>
+        <v>329.7507988033826</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.0278329459644</v>
+        <v>451.1795905013157</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.4721941525406</v>
+        <v>408.1196436184017</v>
       </c>
       <c r="AD2" t="n">
-        <v>279941.1510115548</v>
+        <v>329750.7988033826</v>
       </c>
       <c r="AE2" t="n">
-        <v>383027.8329459644</v>
+        <v>451179.5905013157</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86851597542103e-06</v>
+        <v>4.781645227593657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>346472.1941525406</v>
+        <v>408119.6436184017</v>
       </c>
     </row>
   </sheetData>
@@ -27143,28 +27143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.8108478257788</v>
+        <v>673.265834777734</v>
       </c>
       <c r="AB2" t="n">
-        <v>834.3701049511218</v>
+        <v>921.1920175352373</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.7389931803833</v>
+        <v>833.2747442827903</v>
       </c>
       <c r="AD2" t="n">
-        <v>609810.8478257788</v>
+        <v>673265.834777734</v>
       </c>
       <c r="AE2" t="n">
-        <v>834370.1049511218</v>
+        <v>921192.0175352372</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.269703151039813e-06</v>
+        <v>3.454276254910423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>754738.9931803833</v>
+        <v>833274.7442827902</v>
       </c>
     </row>
     <row r="3">
@@ -27249,28 +27249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.8760143709398</v>
+        <v>427.3606680252429</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.7631218092878</v>
+        <v>584.7337198141756</v>
       </c>
       <c r="AC3" t="n">
-        <v>470.1576589559317</v>
+        <v>528.9275542740401</v>
       </c>
       <c r="AD3" t="n">
-        <v>379876.0143709398</v>
+        <v>427360.6680252429</v>
       </c>
       <c r="AE3" t="n">
-        <v>519763.1218092878</v>
+        <v>584733.7198141756</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.974014949761643e-06</v>
+        <v>4.526173045141998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.43958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>470157.6589559317</v>
+        <v>528927.55427404</v>
       </c>
     </row>
     <row r="4">
@@ -27355,28 +27355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.0465388352472</v>
+        <v>370.6164438355708</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.0065262418375</v>
+        <v>507.0937688993747</v>
       </c>
       <c r="AC4" t="n">
-        <v>399.8220437373716</v>
+        <v>458.6974513061921</v>
       </c>
       <c r="AD4" t="n">
-        <v>323046.5388352472</v>
+        <v>370616.4438355708</v>
       </c>
       <c r="AE4" t="n">
-        <v>442006.5262418375</v>
+        <v>507093.7688993746</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.19642920198959e-06</v>
+        <v>4.864666768373021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.64375</v>
       </c>
       <c r="AH4" t="n">
-        <v>399822.0437373716</v>
+        <v>458697.4513061921</v>
       </c>
     </row>
     <row r="5">
@@ -27461,28 +27461,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>322.4840540760229</v>
+        <v>370.0539590763466</v>
       </c>
       <c r="AB5" t="n">
-        <v>441.2369097791907</v>
+        <v>506.3241524367278</v>
       </c>
       <c r="AC5" t="n">
-        <v>399.1258783897563</v>
+        <v>458.0012859585768</v>
       </c>
       <c r="AD5" t="n">
-        <v>322484.0540760229</v>
+        <v>370053.9590763466</v>
       </c>
       <c r="AE5" t="n">
-        <v>441236.9097791907</v>
+        <v>506324.1524367278</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.200674995350769e-06</v>
+        <v>4.871128469403863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.62916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>399125.8783897563</v>
+        <v>458001.2859585768</v>
       </c>
     </row>
   </sheetData>
@@ -27758,28 +27758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>878.786599810482</v>
+        <v>952.1119979871706</v>
       </c>
       <c r="AB2" t="n">
-        <v>1202.394595189284</v>
+        <v>1302.72163986289</v>
       </c>
       <c r="AC2" t="n">
-        <v>1087.639742595831</v>
+        <v>1178.39171493568</v>
       </c>
       <c r="AD2" t="n">
-        <v>878786.599810482</v>
+        <v>952111.9979871706</v>
       </c>
       <c r="AE2" t="n">
-        <v>1202394.595189284</v>
+        <v>1302721.63986289</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.883841812991092e-06</v>
+        <v>2.812407588458973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1087639.742595831</v>
+        <v>1178391.71493568</v>
       </c>
     </row>
     <row r="3">
@@ -27864,28 +27864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>483.2017696102944</v>
+        <v>532.113845182461</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.1379785383773</v>
+        <v>728.0616381846966</v>
       </c>
       <c r="AC3" t="n">
-        <v>598.0398977796544</v>
+        <v>658.5764572772754</v>
       </c>
       <c r="AD3" t="n">
-        <v>483201.7696102944</v>
+        <v>532113.845182461</v>
       </c>
       <c r="AE3" t="n">
-        <v>661137.9785383773</v>
+        <v>728061.6381846966</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.680174543987576e-06</v>
+        <v>4.001261238562855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.22083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>598039.8977796545</v>
+        <v>658576.4572772754</v>
       </c>
     </row>
     <row r="4">
@@ -27970,28 +27970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>402.4688403154332</v>
+        <v>443.3000355891402</v>
       </c>
       <c r="AB4" t="n">
-        <v>550.675622991679</v>
+        <v>606.5426657103677</v>
       </c>
       <c r="AC4" t="n">
-        <v>498.1199144114434</v>
+        <v>548.6550849829474</v>
       </c>
       <c r="AD4" t="n">
-        <v>402468.8403154332</v>
+        <v>443300.0355891402</v>
       </c>
       <c r="AE4" t="n">
-        <v>550675.622991679</v>
+        <v>606542.6657103677</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.958930305499278e-06</v>
+        <v>4.417418695943739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.06875</v>
       </c>
       <c r="AH4" t="n">
-        <v>498119.9144114434</v>
+        <v>548655.0849829474</v>
       </c>
     </row>
     <row r="5">
@@ -28076,28 +28076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>356.5681186148444</v>
+        <v>405.4801046784599</v>
       </c>
       <c r="AB5" t="n">
-        <v>487.872230564009</v>
+        <v>554.7957677407796</v>
       </c>
       <c r="AC5" t="n">
-        <v>441.3103896119553</v>
+        <v>501.8468383283495</v>
       </c>
       <c r="AD5" t="n">
-        <v>356568.1186148443</v>
+        <v>405480.1046784599</v>
       </c>
       <c r="AE5" t="n">
-        <v>487872.230564009</v>
+        <v>554795.7677407797</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.101845695918982e-06</v>
+        <v>4.630778610641553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.56041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>441310.3896119553</v>
+        <v>501846.8383283495</v>
       </c>
     </row>
     <row r="6">
@@ -28182,28 +28182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.0764067644458</v>
+        <v>386.8222611835811</v>
       </c>
       <c r="AB6" t="n">
-        <v>473.517007548634</v>
+        <v>529.267283145125</v>
       </c>
       <c r="AC6" t="n">
-        <v>428.3252089334857</v>
+        <v>478.7547564730509</v>
       </c>
       <c r="AD6" t="n">
-        <v>346076.4067644458</v>
+        <v>386822.2611835811</v>
       </c>
       <c r="AE6" t="n">
-        <v>473517.007548634</v>
+        <v>529267.283145125</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.140050800288607e-06</v>
+        <v>4.687815419521166e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.43125</v>
       </c>
       <c r="AH6" t="n">
-        <v>428325.2089334857</v>
+        <v>478754.7564730509</v>
       </c>
     </row>
     <row r="7">
@@ -28288,28 +28288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>347.6993851590863</v>
+        <v>388.4452395782216</v>
       </c>
       <c r="AB7" t="n">
-        <v>475.7376381889345</v>
+        <v>531.4879137854256</v>
       </c>
       <c r="AC7" t="n">
-        <v>430.3339057021507</v>
+        <v>480.7634532417159</v>
       </c>
       <c r="AD7" t="n">
-        <v>347699.3851590863</v>
+        <v>388445.2395782216</v>
       </c>
       <c r="AE7" t="n">
-        <v>475737.6381889345</v>
+        <v>531487.9137854256</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.139579132333426e-06</v>
+        <v>4.68711126138685e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.43333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>430333.9057021507</v>
+        <v>480763.4532417159</v>
       </c>
     </row>
   </sheetData>
